--- a/Output(Ankit_Mahalle).xlsx
+++ b/Output(Ankit_Mahalle).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankit\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ty\WebScrapping_NLP_Sentiment_Analyisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E52B54B-CD50-4270-B4DA-0ECA474BE7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3F20A7-ADA7-48A0-897C-ED0B5E50FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +89,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,9 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -457,7 +467,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -599,5 +609,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>